--- a/data_output/prism_passive/all_passive_out_emg_mean_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_mean_submax_2.xlsx
@@ -363,60 +363,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="O1">
         <v>16</v>
       </c>
-      <c r="D1">
+      <c r="P1">
+        <v>18</v>
+      </c>
+      <c r="Q1">
+        <v>19</v>
+      </c>
+      <c r="R1">
+        <v>20</v>
+      </c>
+      <c r="S1">
+        <v>21</v>
+      </c>
+      <c r="T1">
+        <v>22</v>
+      </c>
+      <c r="U1">
+        <v>24</v>
+      </c>
+      <c r="V1">
+        <v>25</v>
+      </c>
+      <c r="W1">
+        <v>26</v>
+      </c>
+      <c r="X1">
+        <v>28</v>
+      </c>
+      <c r="Y1">
+        <v>30</v>
+      </c>
+      <c r="Z1">
+        <v>31</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>2</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+      <c r="AD1">
+        <v>4</v>
+      </c>
+      <c r="AE1">
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <v>6</v>
+      </c>
+      <c r="AG1">
+        <v>7</v>
+      </c>
+      <c r="AH1">
+        <v>8</v>
+      </c>
+      <c r="AI1">
+        <v>9</v>
+      </c>
+      <c r="AJ1">
+        <v>10</v>
+      </c>
+      <c r="AK1">
+        <v>11</v>
+      </c>
+      <c r="AL1">
+        <v>13</v>
+      </c>
+      <c r="AM1">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="AN1">
         <v>16</v>
       </c>
+      <c r="AO1">
+        <v>18</v>
+      </c>
+      <c r="AP1">
+        <v>19</v>
+      </c>
+      <c r="AQ1">
+        <v>20</v>
+      </c>
+      <c r="AR1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AT1">
+        <v>24</v>
+      </c>
+      <c r="AU1">
+        <v>25</v>
+      </c>
+      <c r="AV1">
+        <v>26</v>
+      </c>
+      <c r="AW1">
+        <v>28</v>
+      </c>
+      <c r="AX1">
+        <v>30</v>
+      </c>
+      <c r="AY1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.3205369463258874</v>
+      </c>
       <c r="C2">
+        <v>1.3301030603655288</v>
+      </c>
+      <c r="D2">
+        <v>8.2852004903285152</v>
+      </c>
+      <c r="E2">
+        <v>6.6613382815606288</v>
+      </c>
+      <c r="F2">
+        <v>9.0652002527742841</v>
+      </c>
+      <c r="G2">
+        <v>3.5596598791862397</v>
+      </c>
+      <c r="H2">
+        <v>7.3740066391007959</v>
+      </c>
+      <c r="I2">
+        <v>1.2574207951864382</v>
+      </c>
+      <c r="J2">
+        <v>7.3661791721372989</v>
+      </c>
+      <c r="K2">
+        <v>9.3851189611333883</v>
+      </c>
+      <c r="L2">
+        <v>2.0110662773385934</v>
+      </c>
+      <c r="M2">
+        <v>2.1899292558324888</v>
+      </c>
+      <c r="O2">
         <v>1.8119925614613632</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>1.6057494361537157</v>
+      </c>
+      <c r="Q2">
+        <v>1.7591569794500823</v>
+      </c>
+      <c r="R2">
+        <v>2.8630422683037677</v>
+      </c>
+      <c r="S2">
+        <v>6.1414344147318616</v>
+      </c>
+      <c r="T2">
+        <v>3.3675940099303929</v>
+      </c>
+      <c r="U2">
+        <v>2.4210512431187516</v>
+      </c>
+      <c r="V2">
+        <v>9.9749335575765024</v>
+      </c>
+      <c r="W2">
+        <v>4.6801913322423321</v>
+      </c>
+      <c r="X2">
+        <v>0.84461335230538848</v>
+      </c>
+      <c r="Y2">
+        <v>0.4535661779365453</v>
+      </c>
+      <c r="AA2">
+        <v>3.2219598580471911</v>
+      </c>
+      <c r="AB2">
+        <v>0.73941341563265506</v>
+      </c>
+      <c r="AC2">
+        <v>9.6070907831689425</v>
+      </c>
+      <c r="AD2">
+        <v>2.5257376558684457</v>
+      </c>
+      <c r="AE2">
+        <v>7.2222674506251634</v>
+      </c>
+      <c r="AF2">
+        <v>3.2406693292032545</v>
+      </c>
+      <c r="AG2">
+        <v>7.0446325725630601</v>
+      </c>
+      <c r="AH2">
+        <v>1.4254605048759275</v>
+      </c>
+      <c r="AI2">
+        <v>7.9533375106360591</v>
+      </c>
+      <c r="AJ2">
+        <v>10.147415029479811</v>
+      </c>
+      <c r="AK2">
+        <v>1.8009890969872608</v>
+      </c>
+      <c r="AL2">
+        <v>1.8634001171934902</v>
+      </c>
+      <c r="AM2">
         <v>0.16040792188556249</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>2.6417585572634263</v>
       </c>
+      <c r="AO2">
+        <v>2.2698815208995851</v>
+      </c>
+      <c r="AP2">
+        <v>1.6517687008342474</v>
+      </c>
+      <c r="AQ2">
+        <v>2.0668183387610419</v>
+      </c>
+      <c r="AR2">
+        <v>1.9696545837410109</v>
+      </c>
+      <c r="AS2">
+        <v>3.7855790045743198</v>
+      </c>
+      <c r="AT2">
+        <v>0.9950570402604757</v>
+      </c>
+      <c r="AU2">
+        <v>7.3648077211753531</v>
+      </c>
+      <c r="AV2">
+        <v>2.5336356928944932</v>
+      </c>
+      <c r="AW2">
+        <v>0.39516840280863458</v>
+      </c>
+      <c r="AX2">
+        <v>0.28486288234099516</v>
+      </c>
+      <c r="AY2">
+        <v>1.6667949679831207</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.8594047099194997</v>
+      </c>
+      <c r="C3">
+        <v>1.7986576605304325</v>
+      </c>
+      <c r="D3">
+        <v>2.0079298683739495</v>
+      </c>
+      <c r="E3">
+        <v>8.8150329129785092</v>
+      </c>
+      <c r="F3">
+        <v>2.8806465531465886</v>
+      </c>
+      <c r="G3">
+        <v>3.4186093777455868</v>
+      </c>
+      <c r="H3">
+        <v>7.8385366594033972</v>
+      </c>
+      <c r="I3">
+        <v>2.8746714868653029</v>
+      </c>
+      <c r="J3">
+        <v>5.1505702945727698</v>
+      </c>
+      <c r="K3">
+        <v>4.5812834858304274</v>
+      </c>
+      <c r="L3">
+        <v>1.5373571382937998</v>
+      </c>
+      <c r="M3">
+        <v>3.2486700340789141</v>
+      </c>
+      <c r="N3">
         <v>0.21471520488400841</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.3170179047352386</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1.5585253514838464</v>
+      </c>
+      <c r="Q3">
+        <v>1.2035388851459394</v>
+      </c>
+      <c r="R3">
+        <v>4.0158621626351643</v>
+      </c>
+      <c r="S3">
+        <v>2.0729825792493983</v>
+      </c>
+      <c r="T3">
+        <v>0.61015335786147018</v>
+      </c>
+      <c r="U3">
+        <v>4.8316232143874993</v>
+      </c>
+      <c r="V3">
+        <v>4.7938623397335443</v>
+      </c>
+      <c r="W3">
+        <v>0.83431601478186823</v>
+      </c>
+      <c r="X3">
+        <v>0.89402266818670562</v>
+      </c>
+      <c r="Y3">
+        <v>1.0087791987986949</v>
+      </c>
+      <c r="AA3">
+        <v>2.339827786013033</v>
+      </c>
+      <c r="AB3">
+        <v>7.1466222208211843</v>
+      </c>
+      <c r="AC3">
+        <v>4.5188045668707684</v>
+      </c>
+      <c r="AD3">
+        <v>5.0599148729885393</v>
+      </c>
+      <c r="AE3">
+        <v>5.1546209494323865</v>
+      </c>
+      <c r="AF3">
+        <v>1.4332628146820188</v>
+      </c>
+      <c r="AG3">
+        <v>5.0413117410929091</v>
+      </c>
+      <c r="AH3">
+        <v>0.86841480987763331</v>
+      </c>
+      <c r="AI3">
+        <v>5.9746580205149034</v>
+      </c>
+      <c r="AJ3">
+        <v>5.7797173751864346</v>
+      </c>
+      <c r="AK3">
+        <v>1.5061785049907264</v>
+      </c>
+      <c r="AL3">
+        <v>2.5957549704721417</v>
+      </c>
+      <c r="AM3">
         <v>0.69484101446943281</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>4.3301973074862641</v>
+      </c>
+      <c r="AO3">
+        <v>1.785966025601273</v>
+      </c>
+      <c r="AP3">
+        <v>0.21967189103508034</v>
+      </c>
+      <c r="AQ3">
+        <v>1.085608649569354</v>
+      </c>
+      <c r="AR3">
+        <v>1.1936828634163903</v>
+      </c>
+      <c r="AS3">
+        <v>1.5100502133992912</v>
+      </c>
+      <c r="AT3">
+        <v>1.7738877424077457</v>
+      </c>
+      <c r="AU3">
+        <v>9.5524516039674534</v>
+      </c>
+      <c r="AV3">
+        <v>2.0229995864189809</v>
+      </c>
+      <c r="AW3">
+        <v>1.4482254060304576</v>
+      </c>
+      <c r="AX3">
+        <v>1.7862530638762912</v>
+      </c>
+      <c r="AY3">
+        <v>3.6770145578103026</v>
       </c>
     </row>
   </sheetData>
